--- a/info.xlsx
+++ b/info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Desktop\Project\certi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D94ED67E-8016-43AF-BE59-9B061BD8A020}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A71773D8-B8D9-4CB6-ABD9-F0A7E8D516D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1728" yWindow="12" windowWidth="11724" windowHeight="12228" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,57 +25,94 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Age</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
     <t>Abhay</t>
   </si>
   <si>
-    <t>ab@gm</t>
-  </si>
-  <si>
     <t>Nameera</t>
   </si>
   <si>
-    <t>nf@gm</t>
-  </si>
-  <si>
     <t>Preet</t>
   </si>
   <si>
     <t>Srikar</t>
   </si>
   <si>
-    <t>ps@gm</t>
-  </si>
-  <si>
-    <t>ss@gm</t>
+    <t>S.No</t>
+  </si>
+  <si>
+    <t>Domain</t>
+  </si>
+  <si>
+    <t>Date of Completion</t>
+  </si>
+  <si>
+    <t>21BD1A0601</t>
+  </si>
+  <si>
+    <t>21BD1A0516</t>
+  </si>
+  <si>
+    <t>21BD1A051G</t>
+  </si>
+  <si>
+    <t>21BD1A0602</t>
+  </si>
+  <si>
+    <t>ROBOTICS</t>
+  </si>
+  <si>
+    <t>CYBER</t>
+  </si>
+  <si>
+    <t>Project Title</t>
+  </si>
+  <si>
+    <t>T-1</t>
+  </si>
+  <si>
+    <t>T-2</t>
+  </si>
+  <si>
+    <t>T-3</t>
+  </si>
+  <si>
+    <t>T-4</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>M3</t>
+  </si>
+  <si>
+    <t>BLOCKCHAIN</t>
+  </si>
+  <si>
+    <t>Roll Number</t>
+  </si>
+  <si>
+    <t>Mentor</t>
+  </si>
+  <si>
+    <t>Duration (months)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -98,19 +135,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,77 +421,149 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="8" width="13" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="D1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2" s="1">
+        <v>45134</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3">
+        <v>5</v>
+      </c>
+      <c r="H3" s="1">
+        <v>45135</v>
+      </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B2">
-        <v>19</v>
-      </c>
-      <c r="C2" s="1" t="s">
+      <c r="B4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C4" t="s">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>20</v>
+      </c>
+      <c r="G4">
+        <v>5</v>
+      </c>
+      <c r="H4" s="1">
+        <v>45136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>21</v>
+      </c>
+      <c r="G5">
         <v>5</v>
       </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5">
-        <v>19</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
+      <c r="H5" s="1">
+        <v>45137</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{6172A7C2-9A8B-417C-B048-74A6647613EE}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{1BD7C699-04F0-473D-90E5-CDE2D716950B}"/>
-    <hyperlink ref="C4" r:id="rId3" xr:uid="{A7EF187B-83C3-41A8-9F23-577BA4D0E42B}"/>
-    <hyperlink ref="C5" r:id="rId4" xr:uid="{2628F9B9-7B67-443A-A640-EBB5E6889F75}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>